--- a/Amsterdam/misc/BADM_Site-General-Info/AAMS-BADM-Site_General_Info.xlsx
+++ b/Amsterdam/misc/BADM_Site-General-Info/AAMS-BADM-Site_General_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\AAMS_archive\FLUXNET\Amsterdam\misc\BADM_Site-General-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F35EFF1-5512-42D1-9817-8745327A2482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA4F92D-3D69-42F0-B76C-78BF24812489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_General_Info" sheetId="1" r:id="rId1"/>
@@ -2886,9 +2886,6 @@
     <t>Private</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>https://maq-observations.nl/amsterdam/</t>
   </si>
   <si>
@@ -2911,6 +2908,9 @@
   </si>
   <si>
     <t>Pole</t>
+  </si>
+  <si>
+    <t>NH hotel chain</t>
   </si>
 </sst>
 </file>
@@ -2929,6 +2929,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3438,7 +3439,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>20250414</v>
+        <v>20250515</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3860,7 +3861,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3874,7 +3875,7 @@
         <v>82</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,7 +3911,7 @@
         <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3924,7 +3925,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3938,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3952,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,7 +3981,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3994,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4106,7 +4107,7 @@
         <v>126</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4134,7 +4135,7 @@
         <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4167,7 +4168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="B389" sqref="B389"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
